--- a/Refined Program/rep3_data_analysis/Rep1_DutyRatio_and_AUC.xlsx
+++ b/Refined Program/rep3_data_analysis/Rep1_DutyRatio_and_AUC.xlsx
@@ -486,10 +486,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3592.021154378621</v>
+        <v>3567.325237194857</v>
       </c>
       <c r="G2" t="n">
-        <v>3594.885036344703</v>
+        <v>3570.169429357114</v>
       </c>
     </row>
     <row r="3">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6511.389499999922</v>
+        <v>6017.920055452805</v>
       </c>
       <c r="G3" t="n">
-        <v>6515.986749999905</v>
+        <v>6022.168900184755</v>
       </c>
     </row>
     <row r="4">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4783.988999999889</v>
+        <v>3986.657499999912</v>
       </c>
       <c r="G4" t="n">
-        <v>4787.200599999895</v>
+        <v>3989.333833333246</v>
       </c>
     </row>
     <row r="5">
@@ -567,10 +567,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6111.392921666551</v>
+        <v>6142.103438860858</v>
       </c>
       <c r="G5" t="n">
-        <v>6116.285215833217</v>
+        <v>6147.020317420319</v>
       </c>
     </row>
     <row r="6">
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7504.837649999829</v>
+        <v>6280.949730989804</v>
       </c>
       <c r="G6" t="n">
-        <v>7509.586044999831</v>
+        <v>6284.92375836906</v>
       </c>
     </row>
     <row r="7">
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4712.645762715942</v>
+        <v>4742.037593799409</v>
       </c>
       <c r="G7" t="n">
-        <v>4715.865425835343</v>
+        <v>4745.277337315111</v>
       </c>
     </row>
     <row r="8">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1939.566015625109</v>
+        <v>2056.531229291038</v>
       </c>
       <c r="G8" t="n">
-        <v>1941.03300781261</v>
+        <v>2058.086688204225</v>
       </c>
     </row>
     <row r="9">
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4214.33189655196</v>
+        <v>4511.799505316266</v>
       </c>
       <c r="G9" t="n">
-        <v>4215.805517241615</v>
+        <v>4513.377141169774</v>
       </c>
     </row>
     <row r="10">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2151.160643148669</v>
+        <v>2566.977777777925</v>
       </c>
       <c r="G10" t="n">
-        <v>2154.384935205306</v>
+        <v>2570.825322165094</v>
       </c>
     </row>
     <row r="11">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2813.675277777939</v>
+        <v>2820.570004455493</v>
       </c>
       <c r="G11" t="n">
-        <v>2815.401944444603</v>
+        <v>2822.300902205549</v>
       </c>
     </row>
     <row r="12">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3750.189104128744</v>
+        <v>3945.160424689995</v>
       </c>
       <c r="G12" t="n">
-        <v>3753.624001423843</v>
+        <v>3948.773901369498</v>
       </c>
     </row>
     <row r="13">
@@ -783,10 +783,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4055.062612624164</v>
+        <v>4071.889925999785</v>
       </c>
       <c r="G13" t="n">
-        <v>4059.408343756611</v>
+        <v>4076.253690634203</v>
       </c>
     </row>
     <row r="14">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1421.011601035182</v>
+        <v>1347.338501173534</v>
       </c>
       <c r="G14" t="n">
-        <v>1421.351669667047</v>
+        <v>1347.660938766878</v>
       </c>
     </row>
     <row r="15">
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1501.460000000084</v>
+        <v>1204.195692025733</v>
       </c>
       <c r="G15" t="n">
-        <v>1502.292500000084</v>
+        <v>1204.863370760837</v>
       </c>
     </row>
     <row r="16">
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1588.780000000089</v>
+        <v>1510.247148289058</v>
       </c>
       <c r="G16" t="n">
-        <v>1590.121250000089</v>
+        <v>1511.522100760541</v>
       </c>
     </row>
     <row r="17">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3062.836875000172</v>
+        <v>3906.679687500216</v>
       </c>
       <c r="G17" t="n">
-        <v>3065.345937500172</v>
+        <v>3909.880022321647</v>
       </c>
     </row>
     <row r="18">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2903.031916732293</v>
+        <v>2958.33364169675</v>
       </c>
       <c r="G19" t="n">
-        <v>2905.568517374229</v>
+        <v>2960.91856367826</v>
       </c>
     </row>
     <row r="20">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1879.1351139772</v>
+        <v>1737.392254575702</v>
       </c>
       <c r="G20" t="n">
-        <v>1881.401169766042</v>
+        <v>1739.487382140871</v>
       </c>
     </row>
     <row r="21">
@@ -999,10 +999,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1444.504637161075</v>
+        <v>1597.161066255186</v>
       </c>
       <c r="G21" t="n">
-        <v>1447.020799441777</v>
+        <v>1599.943138619463</v>
       </c>
     </row>
     <row r="22">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1097.496312500004</v>
+        <v>987.8454657965844</v>
       </c>
       <c r="G22" t="n">
-        <v>1098.935381250004</v>
+        <v>989.1407572007238</v>
       </c>
     </row>
     <row r="23">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2053.732861930265</v>
+        <v>1999.364840603998</v>
       </c>
       <c r="G23" t="n">
-        <v>2055.895824396753</v>
+        <v>2001.470543437704</v>
       </c>
     </row>
     <row r="24">
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>868.9024160609255</v>
+        <v>930.7597626992998</v>
       </c>
       <c r="G24" t="n">
-        <v>870.5212781239223</v>
+        <v>932.4938718947021</v>
       </c>
     </row>
     <row r="25">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>793.5281022035982</v>
+        <v>871.442436871274</v>
       </c>
       <c r="G25" t="n">
-        <v>794.6801347724577</v>
+        <v>872.7075843391132</v>
       </c>
     </row>
   </sheetData>
